--- a/clients.xlsx
+++ b/clients.xlsx
@@ -148,7 +148,7 @@
     <t>入金10g, 5g买入Pensana</t>
   </si>
   <si>
-    <t>7.12  通知我方 LEI: 213800TL154EZL51LW66 ,Official Entity Name: 滙勝亞洲有限公司 Annual Renewal Date: 08/07/2022</t>
+    <t>7.12 联系人换成JJ于倩军  通知我方 LEI: 213800TL154EZL51LW66 ,Official Entity Name: 滙勝亞洲有限公司 Annual Renewal Date: 08/07/2022</t>
   </si>
   <si>
     <t>无法confirm identity，因为银行，水电费单地址无法相互证明</t>
